--- a/schedule/schedule_N-03_C-updated_I-010.xlsx
+++ b/schedule/schedule_N-03_C-updated_I-010.xlsx
@@ -112,15 +112,15 @@
     <t>2_2_1</t>
   </si>
   <si>
+    <t>1_1_-1</t>
+  </si>
+  <si>
     <t>2_1_-1</t>
   </si>
   <si>
     <t>3_1_-1</t>
   </si>
   <si>
-    <t>1_1_-1</t>
-  </si>
-  <si>
     <t>M00001</t>
   </si>
   <si>
@@ -214,31 +214,31 @@
     <t>T10090</t>
   </si>
   <si>
+    <t>W10010</t>
+  </si>
+  <si>
     <t>F20050</t>
   </si>
   <si>
-    <t>W10010</t>
+    <t>S11030</t>
   </si>
   <si>
     <t>F20051</t>
   </si>
   <si>
-    <t>S11030</t>
+    <t>S11040</t>
+  </si>
+  <si>
+    <t>W10020</t>
   </si>
   <si>
     <t>F20060</t>
   </si>
   <si>
-    <t>S11040</t>
-  </si>
-  <si>
-    <t>W10020</t>
+    <t>S11050</t>
   </si>
   <si>
     <t>F20070</t>
-  </si>
-  <si>
-    <t>S11050</t>
   </si>
   <si>
     <t>S11051</t>
@@ -725,13 +725,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC36"/>
+  <dimension ref="A1:BD36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:56">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -894,8 +894,11 @@
       <c r="BC1" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:55">
+      <c r="BD1" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,7 +912,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:56">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -941,112 +944,112 @@
         <v>65</v>
       </c>
       <c r="T3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W3" t="s">
         <v>76</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>78</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>79</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>80</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>81</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>82</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>83</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>84</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>85</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>86</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>87</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>38</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>51</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>91</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>93</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>95</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>97</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
         <v>99</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
         <v>39</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>43</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AR3" t="s">
         <v>49</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AS3" t="s">
         <v>52</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AT3" t="s">
         <v>53</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AU3" t="s">
         <v>55</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AV3" t="s">
         <v>56</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AW3" t="s">
         <v>58</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AX3" t="s">
         <v>60</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>64</v>
       </c>
-      <c r="AY3" t="s">
-        <v>69</v>
-      </c>
       <c r="AZ3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="BA3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BB3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC3" t="s">
         <v>75</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BD3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:56">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1078,112 +1081,112 @@
         <v>65</v>
       </c>
       <c r="T4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W4" t="s">
         <v>76</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>78</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>79</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>80</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>81</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>82</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>83</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>84</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>85</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>86</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>87</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>38</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>51</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
         <v>91</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
         <v>93</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>95</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>97</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
         <v>99</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AP4" t="s">
         <v>39</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AQ4" t="s">
         <v>43</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AR4" t="s">
         <v>49</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AS4" t="s">
         <v>52</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AT4" t="s">
         <v>53</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AU4" t="s">
         <v>55</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AV4" t="s">
         <v>56</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AW4" t="s">
         <v>58</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AX4" t="s">
         <v>60</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AY4" t="s">
         <v>64</v>
       </c>
-      <c r="AY4" t="s">
-        <v>69</v>
-      </c>
       <c r="AZ4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="BA4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BB4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC4" t="s">
         <v>75</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BD4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:56">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1215,112 +1218,112 @@
         <v>65</v>
       </c>
       <c r="S5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W5" t="s">
         <v>76</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>78</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>79</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>80</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>81</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>82</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>83</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>84</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>85</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>86</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>87</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>38</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>51</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AK5" t="s">
         <v>91</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AL5" t="s">
         <v>93</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>95</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
         <v>97</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AO5" t="s">
         <v>99</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AP5" t="s">
         <v>39</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AQ5" t="s">
         <v>43</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AR5" t="s">
         <v>49</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AS5" t="s">
         <v>52</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AT5" t="s">
         <v>53</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AU5" t="s">
         <v>55</v>
       </c>
-      <c r="AU5" t="s">
+      <c r="AV5" t="s">
         <v>56</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AW5" t="s">
         <v>58</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AX5" t="s">
         <v>60</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AY5" t="s">
         <v>64</v>
       </c>
-      <c r="AY5" t="s">
-        <v>69</v>
-      </c>
       <c r="AZ5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="BA5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BB5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC5" t="s">
         <v>75</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BD5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:56">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1334,7 +1337,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7" spans="1:56">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1342,7 +1345,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:55">
+    <row r="8" spans="1:56">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1361,41 +1364,41 @@
       <c r="Q8" t="s">
         <v>52</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>53</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>55</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>56</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>58</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>60</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>64</v>
       </c>
-      <c r="X8" t="s">
-        <v>69</v>
-      </c>
       <c r="Y8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AA8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB8" t="s">
         <v>75</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:55">
+    <row r="9" spans="1:56">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1414,41 +1417,41 @@
       <c r="Q9" t="s">
         <v>52</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>53</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>55</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>56</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>58</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>60</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>64</v>
       </c>
-      <c r="X9" t="s">
-        <v>69</v>
-      </c>
       <c r="Y9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AA9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB9" t="s">
         <v>75</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:55">
+    <row r="10" spans="1:56">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1459,7 +1462,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:55">
+    <row r="11" spans="1:56">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1484,38 +1487,38 @@
       <c r="R11" t="s">
         <v>53</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>55</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>56</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>58</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>60</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>64</v>
       </c>
-      <c r="X11" t="s">
-        <v>69</v>
-      </c>
       <c r="Y11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AA11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB11" t="s">
         <v>75</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:55">
+    <row r="12" spans="1:56">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1531,23 +1534,23 @@
       <c r="M12" t="s">
         <v>48</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>62</v>
       </c>
-      <c r="R12" t="s">
-        <v>66</v>
-      </c>
       <c r="S12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:55">
+        <v>72</v>
+      </c>
+      <c r="V12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:56">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1566,20 +1569,20 @@
       <c r="Q13" t="s">
         <v>62</v>
       </c>
-      <c r="R13" t="s">
-        <v>66</v>
-      </c>
       <c r="S13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:55">
+        <v>72</v>
+      </c>
+      <c r="V13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:56">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1614,13 +1617,13 @@
         <v>64</v>
       </c>
       <c r="T14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W14" t="s">
         <v>75</v>
@@ -1629,7 +1632,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:55">
+    <row r="15" spans="1:56">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1664,13 +1667,13 @@
         <v>64</v>
       </c>
       <c r="T15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W15" t="s">
         <v>75</v>
@@ -1679,7 +1682,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:55">
+    <row r="16" spans="1:56">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1714,13 +1717,13 @@
         <v>64</v>
       </c>
       <c r="S16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V16" t="s">
         <v>75</v>
@@ -1729,7 +1732,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:55">
+    <row r="17" spans="1:56">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1761,112 +1764,112 @@
         <v>65</v>
       </c>
       <c r="T17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V17" t="s">
-        <v>72</v>
-      </c>
-      <c r="W17" t="s">
+        <v>71</v>
+      </c>
+      <c r="X17" t="s">
         <v>76</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>78</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>79</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>80</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>81</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>82</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>83</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>84</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>85</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>86</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AH17" t="s">
         <v>87</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AI17" t="s">
         <v>38</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AJ17" t="s">
         <v>51</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AK17" t="s">
         <v>91</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AL17" t="s">
         <v>93</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AM17" t="s">
         <v>95</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AN17" t="s">
         <v>97</v>
       </c>
-      <c r="AN17" t="s">
+      <c r="AO17" t="s">
         <v>99</v>
       </c>
-      <c r="AO17" t="s">
+      <c r="AP17" t="s">
         <v>39</v>
       </c>
-      <c r="AP17" t="s">
+      <c r="AQ17" t="s">
         <v>43</v>
       </c>
-      <c r="AQ17" t="s">
+      <c r="AR17" t="s">
         <v>49</v>
       </c>
-      <c r="AR17" t="s">
+      <c r="AS17" t="s">
         <v>52</v>
       </c>
-      <c r="AS17" t="s">
+      <c r="AT17" t="s">
         <v>53</v>
       </c>
-      <c r="AT17" t="s">
+      <c r="AU17" t="s">
         <v>55</v>
       </c>
-      <c r="AU17" t="s">
+      <c r="AV17" t="s">
         <v>56</v>
       </c>
-      <c r="AV17" t="s">
+      <c r="AW17" t="s">
         <v>58</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="AX17" t="s">
         <v>60</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="AY17" t="s">
         <v>64</v>
       </c>
-      <c r="AY17" t="s">
-        <v>69</v>
-      </c>
       <c r="AZ17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="BA17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BB17" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC17" t="s">
         <v>75</v>
       </c>
-      <c r="BC17" t="s">
+      <c r="BD17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:55">
+    <row r="18" spans="1:56">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1898,88 +1901,88 @@
         <v>65</v>
       </c>
       <c r="T18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V18" t="s">
-        <v>72</v>
-      </c>
-      <c r="W18" t="s">
+        <v>71</v>
+      </c>
+      <c r="X18" t="s">
         <v>76</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>78</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>79</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>80</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>81</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
         <v>82</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>83</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>84</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>85</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>38</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AH18" t="s">
         <v>39</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AI18" t="s">
         <v>43</v>
       </c>
-      <c r="AI18" t="s">
+      <c r="AJ18" t="s">
         <v>49</v>
       </c>
-      <c r="AJ18" t="s">
+      <c r="AK18" t="s">
         <v>52</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AL18" t="s">
         <v>53</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AM18" t="s">
         <v>55</v>
       </c>
-      <c r="AM18" t="s">
+      <c r="AN18" t="s">
         <v>56</v>
       </c>
-      <c r="AN18" t="s">
+      <c r="AO18" t="s">
         <v>58</v>
       </c>
-      <c r="AO18" t="s">
+      <c r="AP18" t="s">
         <v>60</v>
       </c>
-      <c r="AP18" t="s">
+      <c r="AQ18" t="s">
         <v>64</v>
       </c>
-      <c r="AQ18" t="s">
-        <v>69</v>
-      </c>
       <c r="AR18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AS18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AT18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU18" t="s">
         <v>75</v>
       </c>
-      <c r="AU18" t="s">
+      <c r="AV18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:55">
+    <row r="19" spans="1:56">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2001,20 +2004,20 @@
       <c r="Q19" t="s">
         <v>62</v>
       </c>
-      <c r="R19" t="s">
-        <v>66</v>
-      </c>
       <c r="S19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:55">
+        <v>72</v>
+      </c>
+      <c r="V19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:56">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2036,20 +2039,20 @@
       <c r="P20" t="s">
         <v>62</v>
       </c>
-      <c r="R20" t="s">
-        <v>66</v>
-      </c>
       <c r="S20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:55">
+        <v>72</v>
+      </c>
+      <c r="V20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:56">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -2071,20 +2074,20 @@
       <c r="P21" t="s">
         <v>62</v>
       </c>
-      <c r="R21" t="s">
-        <v>66</v>
-      </c>
       <c r="S21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:55">
+        <v>72</v>
+      </c>
+      <c r="V21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:56">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2119,13 +2122,13 @@
         <v>64</v>
       </c>
       <c r="S22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V22" t="s">
         <v>75</v>
@@ -2134,7 +2137,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:55">
+    <row r="23" spans="1:56">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2169,13 +2172,13 @@
         <v>64</v>
       </c>
       <c r="S23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V23" t="s">
         <v>75</v>
@@ -2184,7 +2187,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:55">
+    <row r="24" spans="1:56">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2216,64 +2219,64 @@
         <v>65</v>
       </c>
       <c r="U24" t="s">
-        <v>67</v>
-      </c>
-      <c r="V24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="W24" t="s">
+        <v>71</v>
+      </c>
+      <c r="X24" t="s">
         <v>76</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>78</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>79</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>80</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>81</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
         <v>82</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>83</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>84</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>85</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AH24" t="s">
         <v>87</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AI24" t="s">
         <v>38</v>
       </c>
-      <c r="AI24" t="s">
+      <c r="AJ24" t="s">
         <v>51</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="AL24" t="s">
         <v>91</v>
       </c>
-      <c r="AL24" t="s">
+      <c r="AM24" t="s">
         <v>93</v>
       </c>
-      <c r="AM24" t="s">
+      <c r="AN24" t="s">
         <v>95</v>
       </c>
-      <c r="AN24" t="s">
+      <c r="AO24" t="s">
         <v>97</v>
       </c>
-      <c r="AO24" t="s">
+      <c r="AP24" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:55">
+    <row r="25" spans="1:56">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -2305,82 +2308,82 @@
         <v>65</v>
       </c>
       <c r="U25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V25" t="s">
-        <v>72</v>
-      </c>
-      <c r="W25" t="s">
+        <v>71</v>
+      </c>
+      <c r="X25" t="s">
         <v>76</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>78</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>79</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>80</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AB25" t="s">
         <v>81</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AC25" t="s">
         <v>82</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AD25" t="s">
         <v>83</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>84</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>85</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>38</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AH25" t="s">
         <v>88</v>
       </c>
-      <c r="AH25" t="s">
+      <c r="AI25" t="s">
         <v>89</v>
       </c>
-      <c r="AI25" t="s">
+      <c r="AJ25" t="s">
         <v>90</v>
       </c>
-      <c r="AJ25" t="s">
+      <c r="AK25" t="s">
         <v>92</v>
       </c>
-      <c r="AK25" t="s">
+      <c r="AL25" t="s">
         <v>94</v>
       </c>
-      <c r="AL25" t="s">
+      <c r="AM25" t="s">
         <v>96</v>
       </c>
-      <c r="AM25" t="s">
+      <c r="AN25" t="s">
         <v>98</v>
       </c>
-      <c r="AN25" t="s">
+      <c r="AO25" t="s">
         <v>100</v>
       </c>
-      <c r="AO25" t="s">
+      <c r="AP25" t="s">
         <v>101</v>
       </c>
-      <c r="AP25" t="s">
+      <c r="AQ25" t="s">
         <v>103</v>
       </c>
-      <c r="AQ25" t="s">
+      <c r="AR25" t="s">
         <v>105</v>
       </c>
-      <c r="AR25" t="s">
+      <c r="AS25" t="s">
         <v>107</v>
       </c>
-      <c r="AS25" t="s">
+      <c r="AT25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:55">
+    <row r="26" spans="1:56">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2412,103 +2415,103 @@
         <v>65</v>
       </c>
       <c r="U26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V26" t="s">
-        <v>72</v>
-      </c>
-      <c r="W26" t="s">
+        <v>71</v>
+      </c>
+      <c r="X26" t="s">
         <v>76</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>78</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>79</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>80</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AB26" t="s">
         <v>81</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AC26" t="s">
         <v>82</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AD26" t="s">
         <v>83</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>84</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>85</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>86</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AH26" t="s">
         <v>87</v>
       </c>
-      <c r="AH26" t="s">
+      <c r="AI26" t="s">
         <v>38</v>
       </c>
-      <c r="AI26" t="s">
+      <c r="AJ26" t="s">
         <v>51</v>
       </c>
-      <c r="AJ26" t="s">
+      <c r="AK26" t="s">
         <v>91</v>
       </c>
-      <c r="AK26" t="s">
+      <c r="AL26" t="s">
         <v>93</v>
       </c>
-      <c r="AL26" t="s">
+      <c r="AM26" t="s">
         <v>95</v>
       </c>
-      <c r="AM26" t="s">
+      <c r="AN26" t="s">
         <v>97</v>
       </c>
-      <c r="AN26" t="s">
+      <c r="AO26" t="s">
         <v>99</v>
       </c>
-      <c r="AO26" t="s">
+      <c r="AP26" t="s">
         <v>102</v>
       </c>
-      <c r="AP26" t="s">
+      <c r="AQ26" t="s">
         <v>104</v>
       </c>
-      <c r="AQ26" t="s">
+      <c r="AR26" t="s">
         <v>106</v>
       </c>
-      <c r="AR26" t="s">
+      <c r="AS26" t="s">
         <v>108</v>
       </c>
-      <c r="AS26" t="s">
+      <c r="AT26" t="s">
         <v>110</v>
       </c>
-      <c r="AT26" t="s">
+      <c r="AU26" t="s">
         <v>111</v>
       </c>
-      <c r="AU26" t="s">
+      <c r="AV26" t="s">
         <v>112</v>
       </c>
-      <c r="AV26" t="s">
+      <c r="AW26" t="s">
         <v>113</v>
       </c>
-      <c r="AW26" t="s">
+      <c r="AX26" t="s">
         <v>114</v>
       </c>
-      <c r="AX26" t="s">
+      <c r="AY26" t="s">
         <v>115</v>
       </c>
-      <c r="AY26" t="s">
+      <c r="AZ26" t="s">
         <v>116</v>
       </c>
-      <c r="AZ26" t="s">
+      <c r="BA26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:55">
+    <row r="27" spans="1:56">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2533,38 +2536,38 @@
       <c r="R27" t="s">
         <v>53</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>55</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>56</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>58</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>60</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>64</v>
       </c>
-      <c r="X27" t="s">
-        <v>69</v>
-      </c>
       <c r="Y27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AA27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB27" t="s">
         <v>75</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AC27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:55">
+    <row r="28" spans="1:56">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -2583,23 +2586,23 @@
       <c r="O28" t="s">
         <v>48</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>62</v>
       </c>
-      <c r="R28" t="s">
-        <v>66</v>
-      </c>
       <c r="S28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:55">
+        <v>72</v>
+      </c>
+      <c r="V28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:56">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -2618,23 +2621,23 @@
       <c r="O29" t="s">
         <v>48</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>62</v>
       </c>
-      <c r="R29" t="s">
-        <v>66</v>
-      </c>
       <c r="S29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:55">
+        <v>72</v>
+      </c>
+      <c r="V29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:56">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -2653,23 +2656,23 @@
       <c r="N30" t="s">
         <v>48</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>62</v>
       </c>
-      <c r="R30" t="s">
-        <v>66</v>
-      </c>
       <c r="S30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:55">
+        <v>72</v>
+      </c>
+      <c r="V30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:56">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -2685,23 +2688,23 @@
       <c r="N31" t="s">
         <v>48</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>62</v>
       </c>
-      <c r="R31" t="s">
-        <v>66</v>
-      </c>
       <c r="S31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:55">
+        <v>72</v>
+      </c>
+      <c r="V31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:56">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -2729,29 +2732,29 @@
       <c r="N32" t="s">
         <v>58</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>60</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>64</v>
       </c>
-      <c r="X32" t="s">
-        <v>69</v>
-      </c>
       <c r="Y32" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z32" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AA32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB32" t="s">
         <v>75</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="AC32" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:29">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -2767,44 +2770,44 @@
       <c r="P33" t="s">
         <v>49</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>52</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>53</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>55</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>56</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>58</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>60</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>64</v>
       </c>
-      <c r="X33" t="s">
-        <v>69</v>
-      </c>
       <c r="Y33" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AA33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB33" t="s">
         <v>75</v>
       </c>
-      <c r="AB33" t="s">
+      <c r="AC33" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:29">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -2814,117 +2817,117 @@
       <c r="K34" t="s">
         <v>51</v>
       </c>
-      <c r="L34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M34" t="s">
-        <v>43</v>
-      </c>
-      <c r="P34" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>52</v>
-      </c>
-      <c r="R34" t="s">
-        <v>53</v>
-      </c>
-      <c r="S34" t="s">
-        <v>55</v>
-      </c>
-      <c r="T34" t="s">
-        <v>56</v>
-      </c>
-      <c r="U34" t="s">
-        <v>58</v>
-      </c>
-      <c r="V34" t="s">
-        <v>60</v>
-      </c>
-      <c r="W34" t="s">
-        <v>64</v>
-      </c>
-      <c r="X34" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28">
+    </row>
+    <row r="35" spans="1:29">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E35" t="s">
         <v>38</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>51</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>39</v>
       </c>
       <c r="M35" t="s">
         <v>43</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>49</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>52</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>53</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>55</v>
       </c>
-      <c r="T35" t="s">
+      <c r="U35" t="s">
         <v>56</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>58</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>60</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>64</v>
       </c>
-      <c r="X35" t="s">
-        <v>69</v>
-      </c>
       <c r="Y35" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AA35" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB35" t="s">
         <v>75</v>
       </c>
-      <c r="AB35" t="s">
+      <c r="AC35" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:29">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E36" t="s">
         <v>38</v>
       </c>
+      <c r="J36" t="s">
+        <v>51</v>
+      </c>
       <c r="K36" t="s">
-        <v>51</v>
+        <v>39</v>
+      </c>
+      <c r="M36" t="s">
+        <v>43</v>
+      </c>
+      <c r="O36" t="s">
+        <v>49</v>
+      </c>
+      <c r="R36" t="s">
+        <v>52</v>
+      </c>
+      <c r="S36" t="s">
+        <v>53</v>
+      </c>
+      <c r="T36" t="s">
+        <v>55</v>
+      </c>
+      <c r="U36" t="s">
+        <v>56</v>
+      </c>
+      <c r="V36" t="s">
+        <v>58</v>
+      </c>
+      <c r="W36" t="s">
+        <v>60</v>
+      </c>
+      <c r="X36" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
